--- a/medicine/Enfance/Édouard_Manceau/Édouard_Manceau.xlsx
+++ b/medicine/Enfance/Édouard_Manceau/Édouard_Manceau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Manceau, né le 24 janvier 1969 à Cholet (Maine-et-Loire), est un auteur et illustrateur français, notamment de livres et d'albums jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Manceau passe son enfance en Vendée. Après quelques années où il cherche sa voie, il fait des études à l'École des beaux-arts d'Angers (ESBA) et commence en 1999 à publier des livres pour enfants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Manceau passe son enfance en Vendée. Après quelques années où il cherche sa voie, il fait des études à l'École des beaux-arts d'Angers (ESBA) et commence en 1999 à publier des livres pour enfants.
 Ses livres sont publiés en France par les éditions Thierry Magnier, Milan Presse, Frimousse, Tourbillon (depuis 2017 au sein du Groupe Bayard), Albin Michel, Le Seuil.
-Ils sont traduits dans plusieurs langues, comme l'anglais, l'allemand, le catalan, le chinois, le coréen, l'espagnol (Argentine et Espagne), l'italien le néerlandais, le norvégien, le portugais (Brésil et Portugal), le thaï[2]. 
-« Son travail s'appuie sur différentes techniques, mais sa prédilection se porte vers les papiers découpés[1]. »
+Ils sont traduits dans plusieurs langues, comme l'anglais, l'allemand, le catalan, le chinois, le coréen, l'espagnol (Argentine et Espagne), l'italien le néerlandais, le norvégien, le portugais (Brésil et Portugal), le thaï. 
+« Son travail s'appuie sur différentes techniques, mais sa prédilection se porte vers les papiers découpés. »
 Outre des illustrations pour des livres, il dessine des jeux (notamment des puzzles en bois) principalement pour le fabricant Djeco.
-Il voyage volontiers, à la rencontre d'enfants et de professionnels de l'enfance, en France et à l'étranger, dans des médiathèques, des écoles ou des salons[3].
+Il voyage volontiers, à la rencontre d'enfants et de professionnels de l'enfance, en France et à l'étranger, dans des médiathèques, des écoles ou des salons.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Années 2000
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1999
 Oh les amoureux, éditions Frimousse
 2000
@@ -623,18 +643,54 @@
 2009
 Ça se peut ou ça se peut pas ?, éditions Milan
 La famille gribouillis, éditions Milan
-Tout pour ma pomme, éditions Milan, Prix des Incorruptibles 2011[4]
+Tout pour ma pomme, éditions Milan, Prix des Incorruptibles 2011
 Les quatre saisons de Capucine la souris, éditions Milan
 L'Atelier du petit éléphant, éditions Milan
 L'Atelier de Capucine la souris, éditions Milan
 Pif-pof l'oie, éditions Frimousse
 Fit-fit-fit le poney, éditions Frimousse
 Mes petits trésors, éditions Tourbillon
-Années 2010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Édouard_Manceau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Manceau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2010
 Et si on jouait ! (avec Élise Ortiou-Campion), édition Milan
 C'est bien la moindre des choses, éditions Milan
-Si tous les éléphants s'appelaient Bertrand..., éditions Milan, Prix des Incorruptibles 2012[4]
+Si tous les éléphants s'appelaient Bertrand..., éditions Milan, Prix des Incorruptibles 2012
 Le Petit Voleur, éditions Milan
 Zouik le rouge-gorge, éditions Frimousse
 2011
@@ -660,13 +716,13 @@
 Coucou, le grand cache-cache des animaux, éditions Tourbillon
 Histoires sans queue ni tête, éditions du Seuil
 Le petit oiseau va sortir, éditions Milan
-Fusée, éditions du Seuil -  Prix Libbylit 2014[5]
+Fusée, éditions du Seuil -  Prix Libbylit 2014
 2014
 Clac la tortue, éditions Frimousse
 Gros Cornichon, éditions du Seuil  -  Prix Clel Bell award 2016
 Histoires sans fin, éditions du Seuil
 La Petite Caravane, éditions Tourbillon
-Le Petit Curieux, éditions Milan - Prix Sorcières 2015[6]
+Le Petit Curieux, éditions Milan - Prix Sorcières 2015
 Clic-clac, éditions Benjamin Médias
 Du bruit dans l'art (avec Andy Guérif), éditions Palette
 2015
@@ -677,7 +733,7 @@
 Plop le chien, éditions Frimousse
 Pompons (avec Anwar Hussain), éditions Benjamins Média - Livre-CD
 2016
-La Petite Trouille[7], (avec Alexis HK) éditions Benjamins Média - Livre-CD
+La Petite Trouille, (avec Alexis HK) éditions Benjamins Média - Livre-CD
 Dans tes bras , (avec Scotch and Sofa) éditions Benjamins Média - Livre-CD
 Il est l'heure d'aller au lit maintenant, éditions  Albin Michel
 La Comptine des perroquets , éditions Albin Michel
@@ -687,14 +743,14 @@
 2017
 Un petit bouquin ! éditions Benjamins Média - Livre-CD
 Un petit magicien, éditions Saltimbanque
-Coquin de silence ![8], éditions Albin Michel
+Coquin de silence !, éditions Albin Michel
 Plouf le poisson rouge , éditions Frimousse
 Les Petits Nuages, éditions du Seuil
 Pou Poupidou, Albin jeunesse
 2018
-L'imagier Toc-toc'[9], Milan
+L'imagier Toc-toc', Milan
  Pou Poupidou, Albin Michel jeunesse
- Roule ma poule ![10], Milan
+ Roule ma poule !, Milan
 Tac le panda, Frimousse
  Des tonnes d'animaux : un livre-jeu et mille infos qui détonnent !, texte Stéphane Frattini, Larousse jeunesse
 2019
@@ -706,46 +762,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89douard_Manceau</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Manceau</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Livres-CD</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2015 :  Pompons, texte et illustrations d'Édouard Manceau, musique originale et chant d'Anwar Hussain, Montpellier : Benjamins media
-2016 :
-La petite trouille[7], texte et illustrations de Édouard Manceau, compositon, chant et narration de Alexis HK, Montpellier : Benjamins media
-Dans tes bras, texte et illustration de Édouard Manceau, réalisé par Ludovic Rocca, instruments et chant Scotch &amp; Sofa, chant Chloé Monin, Montpellier : Benjamins media</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -760,17 +783,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prix et récompenses</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix des Incorruptibles 2011[4] pour Tout pour ma pomme
-Prix des Incorruptibles 2012[4] pour Si tous les éléphants s'appelaient Bertrand...
- Prix Libbylit[11] 2014[5] pour Fusée
-Prix Sorcières 2015[6] pour Le Petit Curieux 
- CLEL Bell Award 2016[12] pour Gros Cornichon
-Prix Tatoulu 2017 pour Dans le baba !</t>
+          <t>Livres-CD</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2015 :  Pompons, texte et illustrations d'Édouard Manceau, musique originale et chant d'Anwar Hussain, Montpellier : Benjamins media
+2016 :
+La petite trouille, texte et illustrations de Édouard Manceau, compositon, chant et narration de Alexis HK, Montpellier : Benjamins media
+Dans tes bras, texte et illustration de Édouard Manceau, réalisé par Ludovic Rocca, instruments et chant Scotch &amp; Sofa, chant Chloé Monin, Montpellier : Benjamins media</t>
         </is>
       </c>
     </row>
@@ -780,7 +803,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -795,13 +818,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Quelques expositions</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>«  Dans les petits papiers d'Édouard Manceau »[13], à partir de trois de ses albums Tout pour ma pomme... ; C'est l'histoire d'une histoire ; Tous pareils et Si tous les éléphants s'appelaient Bertrand..., parus entre 2008 et 2011, exposition itinérante
-« Merci, le vent ! »[14], d'après l'album au même titre paru en 2011, exposition itinérante</t>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix des Incorruptibles 2011 pour Tout pour ma pomme
+Prix des Incorruptibles 2012 pour Si tous les éléphants s'appelaient Bertrand...
+ Prix Libbylit 2014 pour Fusée
+Prix Sorcières 2015 pour Le Petit Curieux 
+ CLEL Bell Award 2016 pour Gros Cornichon
+Prix Tatoulu 2017 pour Dans le baba !</t>
         </is>
       </c>
     </row>
@@ -811,7 +840,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89douard_Manceau</t>
+          <t>Édouard_Manceau</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -826,15 +855,87 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Quelques expositions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>«  Dans les petits papiers d'Édouard Manceau », à partir de trois de ses albums Tout pour ma pomme... ; C'est l'histoire d'une histoire ; Tous pareils et Si tous les éléphants s'appelaient Bertrand..., parus entre 2008 et 2011, exposition itinérante
+« Merci, le vent ! », d'après l'album au même titre paru en 2011, exposition itinérante</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Édouard_Manceau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Manceau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En spectacle
-« La famille Gribouillis »[15] de Monia Lyorit et Loïc Dauvillier, d'après deux ouvrages d'Édouard Manceau La famille Gribouillis (2009) et Nom d’un champignon ! (2007), production Il était une fois ; création 2015 ; tournées 2015-2017
-En série animée
-Série d'animation La P'tite Étincelle[16], d'après les ouvrages d'Édouard Manceau publiés aux éditions Frimousse, adaptation de Monia Lyorit et Loïc Dauvillier, réalisation Loïc Dauvillier (en développement)</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En spectacle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« La famille Gribouillis » de Monia Lyorit et Loïc Dauvillier, d'après deux ouvrages d'Édouard Manceau La famille Gribouillis (2009) et Nom d’un champignon ! (2007), production Il était une fois ; création 2015 ; tournées 2015-2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Édouard_Manceau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Manceau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En série animée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Série d'animation La P'tite Étincelle, d'après les ouvrages d'Édouard Manceau publiés aux éditions Frimousse, adaptation de Monia Lyorit et Loïc Dauvillier, réalisation Loïc Dauvillier (en développement)</t>
         </is>
       </c>
     </row>
